--- a/public/sampleSW.xlsx
+++ b/public/sampleSW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPABIBNBX013\Documents\ICT Project Software\new-itportal-first\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_8\htdocs\coba_newitportal\IT-PORTAL-HO\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9A7D39-1525-4BF2-91B5-7491C4861A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F06E60C-A4DA-4519-9118-5FA2D6439E21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
   </bookViews>
@@ -20,26 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
-  <si>
-    <t>max_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>device_name</t>
   </si>
@@ -77,9 +63,6 @@
     <t>Ubiquiti</t>
   </si>
   <si>
-    <t>mac_address = serial_number</t>
-  </si>
-  <si>
     <t>READY_USED</t>
   </si>
   <si>
@@ -89,15 +72,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>PPABIBSW001</t>
-  </si>
-  <si>
-    <t>PPABIBSW002</t>
-  </si>
-  <si>
-    <t>PPABIBSW003</t>
-  </si>
-  <si>
     <t>74:ac:b9:12:74:f9</t>
   </si>
   <si>
@@ -141,13 +115,40 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Asset Ho Number</t>
+  </si>
+  <si>
+    <t>mac_address</t>
+  </si>
+  <si>
+    <t>54654566</t>
+  </si>
+  <si>
+    <t>4564646</t>
+  </si>
+  <si>
+    <t>45646546456546</t>
+  </si>
+  <si>
+    <t>PPAHOSW001</t>
+  </si>
+  <si>
+    <t>PPAHOSW002</t>
+  </si>
+  <si>
+    <t>PPAHOSW003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +270,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -298,13 +320,13 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="17223440" cy="2252382"/>
+    <xdr:ext cx="17223440" cy="2115671"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3520046-E6F1-4603-887F-4EB69363BFF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D77654-7325-42B0-97B8-BD3E191151FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -325,7 +347,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17223440" cy="2252382"/>
+          <a:ext cx="17223440" cy="2115671"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,27 +683,27 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="36.09765625" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="27.69921875" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.09765625" customWidth="1"/>
+    <col min="13" max="13" width="29.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -695,7 +717,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -709,7 +731,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -723,7 +745,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -737,7 +759,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -751,7 +773,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -765,7 +787,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -779,7 +801,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -793,7 +815,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -807,7 +829,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -821,7 +843,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -835,7 +857,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -850,9 +872,9 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -867,12 +889,12 @@
       <c r="L13" s="7"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -882,9 +904,9 @@
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -899,156 +921,168 @@
       <c r="L15" s="7"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1101</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1102</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1103</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="K19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>33</v>
+      <c r="M19" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/public/sampleSW.xlsx
+++ b/public/sampleSW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_8\htdocs\coba_newitportal\IT-PORTAL-HO\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F06E60C-A4DA-4519-9118-5FA2D6439E21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F3429-31DD-4E12-AB9E-90B5A9EE6951}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>FORMAT IMPORT DATA ACCESS POINT (PADA COLUMN MAX_ID WAJIB DI ISI NOMER URUT SESUAI DENGAN NOMER URUT INVENTORY)</t>
-  </si>
-  <si>
     <t>Ubiquiti</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>PPAHOSW003</t>
+  </si>
+  <si>
+    <t>FORMAT IMPORT DATA SWITCH (PADA COLUMN MAX_ID WAJIB DI ISI NOMER URUT SESUAI DENGAN NOMER URUT INVENTORY)</t>
   </si>
 </sst>
 </file>
@@ -265,12 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,6 +285,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -683,16 +683,16 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="6.69921875" customWidth="1"/>
     <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="12" customWidth="1"/>
     <col min="6" max="6" width="36.09765625" customWidth="1"/>
     <col min="7" max="7" width="21.3984375" customWidth="1"/>
     <col min="8" max="8" width="14.8984375" customWidth="1"/>
@@ -704,197 +704,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -905,43 +905,43 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>4</v>
@@ -967,40 +967,40 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1101</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="11">
-        <v>1101</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
@@ -1008,40 +1008,40 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
         <v>1102</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
@@ -1049,40 +1049,40 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="11">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
         <v>1103</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/public/sampleSW.xlsx
+++ b/public/sampleSW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_8\htdocs\coba_newitportal\IT-PORTAL-HO\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT PPA-BIB\Documents\PROJECT ICT SOFTWARE\IT-PORTAL-HO-FIXED-ONLY-HO\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F3429-31DD-4E12-AB9E-90B5A9EE6951}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DD3262-5A79-4AAF-9545-862CA8D99BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>device_name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>READY_USED</t>
   </si>
   <si>
-    <t>*JIKA ADA DATA TIDAK ADA ATAU KOSONG BISA DI ISI DENGAN (-)</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -141,14 +138,26 @@
     <t>PPAHOSW003</t>
   </si>
   <si>
-    <t>FORMAT IMPORT DATA SWITCH (PADA COLUMN MAX_ID WAJIB DI ISI NOMER URUT SESUAI DENGAN NOMER URUT INVENTORY)</t>
+    <t>LIST DATA IMPORT AP &amp; Panduan Pengisian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* KOLOM/DATA TIDAK BOLOEH KOSONG, JIKA ADA YANG KOSONG MAKA DI ISIKAN DENGAN (-) </t>
+  </si>
+  <si>
+    <t>* PENGISIAN NOMER INVENTORY SESUAIKAN DENGAN SITE MASING MASING, UNTUK DATA YANG SUDAH ADA PADA SHEET INI BOLEH DI HAPUS KARENA HANYA BERSIFAT SAMPLE DATA!</t>
+  </si>
+  <si>
+    <t>DIMOHON UNTUK MEMBACA PETUNJUK DI ATAS SEBELUM MELAKUKAN PENGISIAN DATA, UNTUK MENGHINDARI ADANYA KESALAHAN/GAGAL IMPORT DATA PADA SISTEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +193,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +240,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,14 +285,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,14 +333,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,18 +341,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -309,58 +359,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="17223440" cy="2115671"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D77654-7325-42B0-97B8-BD3E191151FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="17223440" cy="2115671"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,420 +678,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C41EB6C-1614-4483-BF76-7A2D3A426679}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="36.09765625" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" customWidth="1"/>
-    <col min="9" max="9" width="27.69921875" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" customWidth="1"/>
+    <col min="7" max="7" width="34.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.09765625" customWidth="1"/>
-    <col min="13" max="13" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C17" s="15">
+        <v>1101</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
         <v>2</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1102</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
         <v>3</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1101</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="B19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1103</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="K19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1102</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1103</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>27</v>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A1:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A15:L15"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A12:N13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E17:E19" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>